--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="783">
   <si>
     <t>Title</t>
   </si>
@@ -2423,6 +2423,12 @@
   <si>
     <t>2021-05-22T13:35:14Z</t>
   </si>
+  <si>
+    <t>49296</t>
+  </si>
+  <si>
+    <t>2021-05-28T04:59:36Z</t>
+  </si>
 </sst>
 </file>
 
@@ -2431,7 +2437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3330,11 +3336,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.77734375" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3782,12 +3788,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.77734375" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="11" width="9.21875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.21875" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.77734375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.21875" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9160,20 +9166,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.77734375" style="9" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" style="9" width="8.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -9227,8 +9233,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
-        <v>59657</v>
+      <c r="A2" s="26" t="s">
+        <v>781</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
@@ -9240,7 +9246,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
@@ -9257,8 +9263,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
-        <v>59658</v>
+      <c r="A3" s="26" t="n">
+        <v>49297.0</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C24D88-0FFD-4E3F-B657-C3AC298F6BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C081D515-7443-40E8-A7B4-8690A36F9436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="784">
   <si>
     <t>Title</t>
   </si>
@@ -2421,13 +2421,16 @@
     <t>Sprint_AutomationData_GenericUploader</t>
   </si>
   <si>
-    <t>2021-05-22T13:35:14Z</t>
-  </si>
-  <si>
-    <t>49296</t>
-  </si>
-  <si>
     <t>2021-05-28T04:59:36Z</t>
+  </si>
+  <si>
+    <t>54275</t>
+  </si>
+  <si>
+    <t>2021-08-31T05:41:32Z</t>
+  </si>
+  <si>
+    <t>54277</t>
   </si>
 </sst>
 </file>
@@ -9161,7 +9164,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9263,8 +9266,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="n">
-        <v>49297.0</v>
+      <c r="A3" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
@@ -9497,21 +9500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -9690,10 +9678,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9716,20 +9730,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C081D515-7443-40E8-A7B4-8690A36F9436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3902E2-2E38-4802-B59D-C67D78B07353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="784">
   <si>
     <t>Title</t>
   </si>
@@ -297,10 +297,6 @@
   </si>
   <si>
     <t>Technical Attributes Mapped</t>
-  </si>
-  <si>
-    <t>All datetime should be of "yyyy-mm-dd hh:mm:ss.sss" format. 
-Ex: 2019-03-12 22:33:44.123</t>
   </si>
   <si>
     <t>Version No</t>
@@ -1949,12 +1945,6 @@
     <t>source created by and Source Modified by attributes are  introduced in the Iteration entity</t>
   </si>
   <si>
-    <t>Date on which entity was created in the external tool and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Date on which entity was modified in the external tool.User can update the data through this field only with higher difference in Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>EPIC</t>
   </si>
   <si>
@@ -2118,240 +2108,265 @@
     <t>CommitedStarton</t>
   </si>
   <si>
+    <t>Close On (Committed)</t>
+  </si>
+  <si>
+    <t>CommitedEndon</t>
+  </si>
+  <si>
+    <t>Start On (Forecast)</t>
+  </si>
+  <si>
+    <t>TargetStartOn</t>
+  </si>
+  <si>
+    <t>Close On (Forecast)</t>
+  </si>
+  <si>
+    <t>TargetEndOn</t>
+  </si>
+  <si>
+    <t>Start On (Actual)</t>
+  </si>
+  <si>
+    <t>Starton</t>
+  </si>
+  <si>
+    <t>Close On (Actual)</t>
+  </si>
+  <si>
+    <t>StartOn</t>
+  </si>
+  <si>
+    <t>SeverityUId</t>
+  </si>
+  <si>
+    <t>the degree of business impact that the entity can have.
+Should be mapped with the source Severity value from the external tool.</t>
+  </si>
+  <si>
+    <t>Alphanumeric
+Size: Up to 50000 characters</t>
+  </si>
+  <si>
+    <t>Unsigned 64-bit integer</t>
+  </si>
+  <si>
+    <t>Identified On</t>
+  </si>
+  <si>
+    <t>IdetifiedDate</t>
+  </si>
+  <si>
+    <t>Complexity of the Entity.
+Should be mapped with the complexity value from the external tool</t>
+  </si>
+  <si>
+    <t>Alphanumeric
+Size: Up to 5000 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related </t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>00200400-0010-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200400-0020-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
+  <si>
+    <t>00200400-0140-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Blocked By</t>
+  </si>
+  <si>
+    <t>00200400-0130-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Successor</t>
+  </si>
+  <si>
+    <t>00200400-0070-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Predecessor</t>
+  </si>
+  <si>
+    <t>00200400-0060-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Category(Action entity) - from CDM</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Note :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priority ,Type and other multi value should be flown as per the client native value</t>
+  </si>
+  <si>
+    <t>Handling Association</t>
+  </si>
+  <si>
+    <t>Any of the associated entities should also be uploaded to support end to end association and Data flow</t>
+  </si>
+  <si>
+    <t>Handling Association has been added in the Read me section</t>
+  </si>
+  <si>
+    <t>v3.1</t>
+  </si>
+  <si>
+    <t>"Conditional Mandatory Filelds" has been updated for all the work item entities (except Iteration) in row no 5 (in Read me) as per the 
+BUG 965769</t>
+  </si>
+  <si>
+    <t>28/9/2020</t>
+  </si>
+  <si>
+    <t>Conditional Mandatory Filelds</t>
+  </si>
+  <si>
+    <t>TeamArea Id ,TeamArea Name,Iteration Id,Iteration Name,Release Id,Release Name</t>
+  </si>
+  <si>
+    <t>Action and Decision association has been included for "Risk" and "Issue" entity</t>
+  </si>
+  <si>
+    <t>29/9/2020</t>
+  </si>
+  <si>
+    <t>These fields are conditional mandatory. If either of the field is provided, the other becomes mandatory</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>This should be visible only for No Tool Scenario.
+For Tool scenario, should be set as Default 'Agile'</t>
+  </si>
+  <si>
+    <t>MethodologyUId</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>Methodology added for Iteration entity</t>
+  </si>
+  <si>
+    <t>State of an Entity. Although this is not mandatory at myWizard end; user needs to select a value, so that the Entity is available on consuming App's for display and computations.</t>
+  </si>
+  <si>
+    <t>SubMethodology</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Updated the read me section for the line DateFormat from 'All datetime should be of "yyyy-mm-dd hh:mm:ss.sss" format. ' to 'All datetime should be of "YYYY-MM-DDTHH:MM:SSZ" format.'</t>
+  </si>
+  <si>
+    <t>Mahendroo Achla</t>
+  </si>
+  <si>
+    <t>updated description for all the date and time attributes to "&amp; Date Time and and date formula"</t>
+  </si>
+  <si>
+    <t>Achla Mahendroo</t>
+  </si>
+  <si>
+    <t>Date on which entity was created in the external tool and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Date on which entity was modified in the external tool.User can update the data through this field only with higher difference in Date Time and and date format&amp; Date Time and date formulamust be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
     <t>Committed or Baseline Start date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Close On (Committed)</t>
-  </si>
-  <si>
-    <t>CommitedEndon</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>Committed or Baseline Finish date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Start On (Forecast)</t>
-  </si>
-  <si>
-    <t>TargetStartOn</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>Forecasted or Planned start date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Close On (Forecast)</t>
-  </si>
-  <si>
-    <t>TargetEndOn</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>Forecasted or Planned finish date/
 Date on which we plan to close the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Start On (Actual)</t>
-  </si>
-  <si>
-    <t>Starton</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>Actual Start date of the Entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Close On (Actual)</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>Actual Finish date of the Entity/
 Date on which the entity was actually marked as Closed
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>StartOn</t>
-  </si>
-  <si>
-    <t>Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>SeverityUId</t>
-  </si>
-  <si>
-    <t>the degree of business impact that the entity can have.
-Should be mapped with the source Severity value from the external tool.</t>
-  </si>
-  <si>
-    <t>Alphanumeric
-Size: Up to 50000 characters</t>
-  </si>
-  <si>
-    <t>Unsigned 64-bit integer</t>
-  </si>
-  <si>
-    <t>Identified On</t>
-  </si>
-  <si>
-    <t>IdetifiedDate</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>The date on which the enitity was identified/requested/raised.
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
-    <t>Complexity of the Entity.
-Should be mapped with the complexity value from the external tool</t>
-  </si>
-  <si>
-    <t>Alphanumeric
-Size: Up to 5000 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related </t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>00200400-0010-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>Child of</t>
-  </si>
-  <si>
-    <t>00200400-0020-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>Blocks</t>
-  </si>
-  <si>
-    <t>00200400-0140-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>Blocked By</t>
-  </si>
-  <si>
-    <t>00200400-0130-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>Successor</t>
-  </si>
-  <si>
-    <t>00200400-0070-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>Predecessor</t>
-  </si>
-  <si>
-    <t>00200400-0060-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t>Category(Action entity) - from CDM</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Note :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priority ,Type and other multi value should be flown as per the client native value</t>
-  </si>
-  <si>
-    <t>Handling Association</t>
-  </si>
-  <si>
-    <t>Any of the associated entities should also be uploaded to support end to end association and Data flow</t>
-  </si>
-  <si>
-    <t>Handling Association has been added in the Read me section</t>
-  </si>
-  <si>
-    <t>v3.1</t>
-  </si>
-  <si>
-    <t>"Conditional Mandatory Filelds" has been updated for all the work item entities (except Iteration) in row no 5 (in Read me) as per the 
-BUG 965769</t>
-  </si>
-  <si>
-    <t>28/9/2020</t>
-  </si>
-  <si>
-    <t>Conditional Mandatory Filelds</t>
-  </si>
-  <si>
-    <t>TeamArea Id ,TeamArea Name,Iteration Id,Iteration Name,Release Id,Release Name</t>
-  </si>
-  <si>
-    <t>Action and Decision association has been included for "Risk" and "Issue" entity</t>
-  </si>
-  <si>
-    <t>29/9/2020</t>
-  </si>
-  <si>
-    <t>These fields are conditional mandatory. If either of the field is provided, the other becomes mandatory</t>
-  </si>
-  <si>
-    <t>Methodology</t>
-  </si>
-  <si>
-    <t>This should be visible only for No Tool Scenario.
-For Tool scenario, should be set as Default 'Agile'</t>
-  </si>
-  <si>
-    <t>MethodologyUId</t>
-  </si>
-  <si>
-    <t>15/10/2020</t>
-  </si>
-  <si>
-    <t>Methodology added for Iteration entity</t>
-  </si>
-  <si>
-    <t>State of an Entity. Although this is not mandatory at myWizard end; user needs to select a value, so that the Entity is available on consuming App's for display and computations.</t>
-  </si>
-  <si>
-    <t>SubMethodology</t>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Read me section updated for  "DateFormat" under "Good Practices"  as per enhancement 1548517</t>
+  </si>
+  <si>
+    <t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".
+Note : To validate the Date Format configured in the DateTime fields, check the Format Cell with General option.</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
   </si>
   <si>
     <t>Created</t>
   </si>
   <si>
+    <t>Scrum</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
-    <t>Waterfall</t>
-  </si>
-  <si>
-    <t>Scrum</t>
-  </si>
-  <si>
     <t>Sprint-DevelopmentSprint</t>
   </si>
   <si>
+    <t>Agile</t>
+  </si>
+  <si>
     <t>Scope</t>
   </si>
   <si>
+    <t>Scrumban</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Agile</t>
-  </si>
-  <si>
-    <t>Scrumban</t>
+    <t>Iterative</t>
+  </si>
+  <si>
+    <t>Kanban</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Iterative</t>
-  </si>
-  <si>
-    <t>Kanban</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -2412,35 +2427,17 @@
     <t>Sprint-Sprint0</t>
   </si>
   <si>
-    <t>2021-05-19T13:56:34Z</t>
-  </si>
-  <si>
     <t>Release_AutomationData_GenericUploader</t>
   </si>
   <si>
     <t>Sprint_AutomationData_GenericUploader</t>
-  </si>
-  <si>
-    <t>2021-05-28T04:59:36Z</t>
-  </si>
-  <si>
-    <t>54275</t>
-  </si>
-  <si>
-    <t>2021-08-31T05:41:32Z</t>
-  </si>
-  <si>
-    <t>54277</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="17">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2536,12 +2533,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2805,7 +2796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2870,8 +2861,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2882,9 +2871,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2992,10 +2978,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,6 +2995,25 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3331,448 +3336,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC6D2C-D26F-4A0D-A230-125B5010EEAF}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="6" width="8.77734375" collapsed="true"/>
+    <col min="1" max="1" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C3" s="10">
         <v>44141</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C4" s="10">
         <v>44171</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>621</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>626</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C16" s="33">
+        <v>645</v>
+      </c>
+      <c r="C16" s="30">
         <v>43898</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="C17" s="33">
+        <v>647</v>
+      </c>
+      <c r="C17" s="30">
         <v>43898</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="C18" s="33">
+        <v>648</v>
+      </c>
+      <c r="C18" s="30">
         <v>43959</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="C19" s="33">
+        <v>649</v>
+      </c>
+      <c r="C19" s="30">
         <v>43959</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D22" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D22" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="C25" s="73">
+        <v>717</v>
+      </c>
+      <c r="C25" s="70">
         <v>44113</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C29" s="70">
+        <v>44393</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="70">
+        <v>44403</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="75">
+        <v>30</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>748</v>
+      </c>
+      <c r="C31" s="76">
+        <v>44489</v>
+      </c>
+      <c r="D31" s="74" t="s">
         <v>655</v>
       </c>
+      <c r="E31" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3784,63 +3832,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7364B18-9106-44A1-8915-0903EE156E9A}">
   <dimension ref="A1:L476"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.77734375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.21875" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.21875" collapsed="true"/>
+    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.81640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10" style="3" customWidth="1"/>
+    <col min="6" max="11" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="J1" s="34" t="s">
         <v>631</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="K1" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>633</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>634</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>636</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -3872,12 +3920,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
-        <v>666</v>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>663</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>76</v>
@@ -3907,13 +3955,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>727</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72" t="s">
-        <v>728</v>
+    <row r="4" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
+        <v>716</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>76</v>
@@ -3943,12 +3991,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>733</v>
+    <row r="5" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>721</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>76</v>
@@ -3976,110 +4024,110 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:12" ht="50" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
-        <v>86</v>
+      <c r="B8" s="44"/>
+      <c r="C8" s="77" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="48" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>91</v>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>592</v>
-      </c>
       <c r="D12" s="12" t="s">
         <v>76</v>
       </c>
@@ -4108,15 +4156,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>76</v>
@@ -4146,15 +4194,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>76</v>
@@ -4184,15 +4232,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>616</v>
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>615</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>76</v>
@@ -4222,15 +4270,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4242,15 +4290,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>76</v>
@@ -4278,15 +4326,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>668</v>
+    <row r="18" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>665</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>76</v>
@@ -4315,14 +4363,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>76</v>
@@ -4350,15 +4398,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>669</v>
+    <row r="20" spans="1:12" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>666</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>76</v>
@@ -4386,15 +4434,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4406,53 +4454,53 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>672</v>
+    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>669</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>560</v>
-      </c>
       <c r="C23" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4464,53 +4512,53 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>673</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>676</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4522,53 +4570,53 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>677</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
-        <v>678</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>680</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -4580,53 +4628,53 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>681</v>
+    <row r="28" spans="1:12" ht="52" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>678</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>564</v>
-      </c>
       <c r="C29" s="20" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>76</v>
@@ -4656,15 +4704,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>76</v>
@@ -4692,15 +4740,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
-        <v>682</v>
+    <row r="31" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>679</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>684</v>
+        <v>740</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4712,15 +4760,15 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
-        <v>685</v>
+    <row r="32" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>681</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>687</v>
+        <v>741</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4732,15 +4780,15 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
-        <v>688</v>
+    <row r="33" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>683</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -4752,15 +4800,15 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
-        <v>691</v>
+    <row r="34" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>685</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>693</v>
+        <v>743</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -4772,15 +4820,15 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
-        <v>694</v>
+    <row r="35" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>687</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -4792,15 +4840,15 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
-    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>697</v>
+    <row r="36" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>689</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -4812,15 +4860,15 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+    <row r="37" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="12" t="s">
@@ -4840,15 +4888,15 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
-    <row r="38" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
+    <row r="38" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="12" t="s">
@@ -4874,13 +4922,13 @@
       </c>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="12"/>
@@ -4894,8 +4942,8 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="20"/>
@@ -4914,8 +4962,8 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+    <row r="41" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="20"/>
@@ -4934,13 +4982,13 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
+    <row r="42" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4954,13 +5002,13 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+    <row r="43" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4976,8 +5024,8 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="s">
+    <row r="44" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="20"/>
@@ -4996,8 +5044,8 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="29.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+    <row r="45" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="20"/>
@@ -5014,8 +5062,8 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+    <row r="46" spans="1:12" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="20"/>
@@ -5032,8 +5080,8 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="20"/>
@@ -5050,8 +5098,8 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+    <row r="48" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="20"/>
@@ -5068,9 +5116,9 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>101</v>
+    <row r="49" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -5088,15 +5136,15 @@
       <c r="K49" s="12"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+    <row r="50" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -5112,15 +5160,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+    <row r="51" spans="1:12" ht="52" x14ac:dyDescent="0.25">
+      <c r="A51" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>76</v>
@@ -5148,15 +5196,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
-        <v>97</v>
+    <row r="52" spans="1:12" ht="52" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>76</v>
@@ -5184,15 +5232,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+    <row r="53" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>76</v>
@@ -5218,15 +5266,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
+    <row r="54" spans="1:12" ht="52" x14ac:dyDescent="0.25">
+      <c r="A54" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>76</v>
@@ -5254,15 +5302,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
+    <row r="55" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A55" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>76</v>
@@ -5288,15 +5336,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="56" t="s">
+    <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A56" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>76</v>
@@ -5312,15 +5360,15 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
-        <v>102</v>
+    <row r="57" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A57" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>76</v>
@@ -5338,15 +5386,15 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+    <row r="58" spans="1:12" ht="52" x14ac:dyDescent="0.25">
+      <c r="A58" s="53" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>76</v>
@@ -5364,15 +5412,15 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="56" t="s">
-        <v>108</v>
+    <row r="59" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>76</v>
@@ -5390,15 +5438,15 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="60" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
-        <v>109</v>
+    <row r="60" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>76</v>
@@ -5416,15 +5464,15 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+    <row r="61" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>76</v>
@@ -5440,15 +5488,15 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" s="56" t="s">
+    <row r="62" spans="1:12" ht="65" x14ac:dyDescent="0.25">
+      <c r="A62" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>76</v>
@@ -5468,15 +5516,15 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
-    <row r="63" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="56" t="s">
+    <row r="63" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>76</v>
@@ -5498,15 +5546,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="56" t="s">
-        <v>705</v>
+    <row r="64" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
+        <v>695</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5518,15 +5566,15 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
     </row>
-    <row r="65" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="56" t="s">
+    <row r="65" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A65" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>76</v>
@@ -5554,15 +5602,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="56" t="s">
-        <v>582</v>
+    <row r="66" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="53" t="s">
+        <v>581</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C66" s="74" t="s">
-        <v>737</v>
+        <v>577</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>725</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>76</v>
@@ -5590,14 +5638,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="56" t="s">
-        <v>584</v>
+    <row r="67" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="53" t="s">
+        <v>583</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="C67" s="75"/>
+        <v>582</v>
+      </c>
+      <c r="C67" s="79"/>
       <c r="D67" s="12" t="s">
         <v>76</v>
       </c>
@@ -5624,15 +5672,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="56" t="s">
-        <v>585</v>
+    <row r="68" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="53" t="s">
+        <v>584</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="C68" s="74" t="s">
-        <v>737</v>
+        <v>578</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>725</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>76</v>
@@ -5660,14 +5708,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="56" t="s">
-        <v>586</v>
+    <row r="69" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="C69" s="75"/>
+        <v>588</v>
+      </c>
+      <c r="C69" s="79"/>
       <c r="D69" s="12" t="s">
         <v>76</v>
       </c>
@@ -5694,15 +5742,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
-        <v>587</v>
+    <row r="70" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="53" t="s">
+        <v>586</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="C70" s="74" t="s">
-        <v>737</v>
+        <v>579</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>725</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>76</v>
@@ -5730,14 +5778,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
-        <v>588</v>
+    <row r="71" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="53" t="s">
+        <v>587</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="C71" s="75"/>
+        <v>589</v>
+      </c>
+      <c r="C71" s="79"/>
       <c r="D71" s="12" t="s">
         <v>76</v>
       </c>
@@ -5764,9 +5812,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="56" t="s">
-        <v>106</v>
+    <row r="72" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -5782,9 +5830,9 @@
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>107</v>
+    <row r="73" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="56" t="s">
+        <v>106</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -5800,9 +5848,9 @@
       </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
-        <v>98</v>
+    <row r="74" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -5818,9 +5866,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
-        <v>99</v>
+    <row r="75" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="56" t="s">
+        <v>98</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -5836,9 +5884,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
-        <v>100</v>
+    <row r="76" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -5854,9 +5902,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
-        <v>103</v>
+    <row r="77" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -5872,9 +5920,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="59" t="s">
-        <v>545</v>
+    <row r="78" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="s">
+        <v>544</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -5890,9 +5938,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="59" t="s">
-        <v>546</v>
+    <row r="79" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="56" t="s">
+        <v>545</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -5908,9 +5956,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
-        <v>547</v>
+    <row r="80" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="56" t="s">
+        <v>546</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -5926,9 +5974,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
-        <v>104</v>
+    <row r="81" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -5944,9 +5992,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
-        <v>105</v>
+    <row r="82" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="56" t="s">
+        <v>104</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -5962,12 +6010,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
+    <row r="83" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -5980,12 +6028,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
-        <v>549</v>
-      </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
+    <row r="84" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="56" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5998,12 +6046,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
+    <row r="85" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -6016,13 +6064,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="58" t="s">
+    <row r="86" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48" t="s">
-        <v>708</v>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45" t="s">
+        <v>697</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="12" t="s">
@@ -6036,88 +6084,88 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="60" t="s">
-        <v>738</v>
-      </c>
-      <c r="B87" s="61" t="s">
-        <v>740</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="E87" s="62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="60" t="s">
-        <v>582</v>
-      </c>
-      <c r="B88" s="61" t="s">
-        <v>578</v>
+    <row r="87" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="A87" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>728</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="E87" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="26" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>577</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="D88" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="62"/>
+        <v>698</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="59"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="61" t="s">
-        <v>584</v>
-      </c>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="63" t="s">
+      <c r="A89" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="B90" s="45"/>
+      <c r="C90" s="61" t="s">
+        <v>613</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="60" t="s">
         <v>542</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="64" t="s">
-        <v>604</v>
+      <c r="B91" s="45"/>
+      <c r="C91" s="61" t="s">
+        <v>603</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -6129,12 +6177,12 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
+    <row r="92" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="2"/>
@@ -6145,13 +6193,13 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="64" t="s">
-        <v>615</v>
+    <row r="93" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="45"/>
+      <c r="C93" s="61" t="s">
+        <v>614</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>76</v>
@@ -6181,2972 +6229,2972 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="61"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="66" t="s">
+      <c r="B94" s="62"/>
+      <c r="C94" s="58"/>
+    </row>
+    <row r="95" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A95" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="61"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="47" t="s">
+      <c r="B95" s="62"/>
+      <c r="C95" s="58"/>
+    </row>
+    <row r="96" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A96" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
+      <c r="C96" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A97" s="44"/>
       <c r="B97" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
+      <c r="C97" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A98" s="44"/>
       <c r="B98" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
+      <c r="C98" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A99" s="44"/>
       <c r="B99" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
+      <c r="C99" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A100" s="44"/>
       <c r="B100" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
+      <c r="C100" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
       <c r="B101" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C101" s="48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
+      <c r="C101" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A102" s="44"/>
       <c r="B102" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C102" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
+      <c r="C102" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A103" s="44"/>
       <c r="B103" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
+      <c r="C103" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A104" s="44"/>
       <c r="B104" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="48" t="s">
+      <c r="C104" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A105" s="44"/>
+      <c r="B105" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
-      <c r="B105" s="14" t="s">
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A106" s="44"/>
+      <c r="B106" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C106" s="45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A107" s="44"/>
       <c r="B107" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="C107" s="48"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
+        <v>606</v>
+      </c>
+      <c r="C107" s="45"/>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A108" s="44"/>
       <c r="B108" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="48"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="47" t="s">
+      <c r="C108" s="45"/>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A109" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
+      <c r="C109" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
       <c r="B110" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
+      <c r="C110" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A111" s="44"/>
       <c r="B111" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
+      <c r="C111" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A112" s="44"/>
       <c r="B112" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
+      <c r="C112" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A113" s="44"/>
       <c r="B113" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
+      <c r="C113" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A114" s="44"/>
       <c r="B114" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A115" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="C115" s="45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="17" t="s">
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A116" s="44"/>
+      <c r="B116" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C116" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A117" s="44"/>
+      <c r="B117" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="C117" s="45" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A118" s="44"/>
+      <c r="B118" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A119" s="44"/>
+      <c r="B119" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
+      <c r="B120" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C121" s="45" t="s">
         <v>710</v>
       </c>
-      <c r="C115" s="48" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="45" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="C118" s="48" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="C120" s="48" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="C121" s="48" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C122" s="48" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
+      <c r="B123" s="64" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
-      <c r="B123" s="67" t="s">
+      <c r="C123" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C123" s="48" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="44"/>
+      <c r="B124" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" s="48" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="44"/>
+      <c r="B125" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="48" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="44"/>
+      <c r="B126" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C126" s="48" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="44"/>
+      <c r="B127" s="64" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="67" t="s">
+      <c r="C127" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="48" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="44"/>
+      <c r="B128" s="64" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="67" t="s">
+      <c r="C128" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C128" s="48" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="44"/>
+      <c r="B129" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="47"/>
-      <c r="B129" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="48" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="44"/>
+      <c r="B130" s="64" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="67" t="s">
+      <c r="C130" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="48" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="44"/>
+      <c r="B131" s="64" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="67" t="s">
+      <c r="C131" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C131" s="48" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="44"/>
+      <c r="B132" s="64" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
-      <c r="B132" s="67" t="s">
+      <c r="C132" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C132" s="48" t="s">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="44"/>
+      <c r="B133" s="64" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
-      <c r="B133" s="67" t="s">
+      <c r="C133" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C133" s="48" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="44"/>
+      <c r="B134" s="64" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="67" t="s">
+      <c r="C134" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C134" s="48" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="44"/>
+      <c r="B135" s="64" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="67" t="s">
+      <c r="C135" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C135" s="48" t="s">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="44"/>
+      <c r="B136" s="64" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="67" t="s">
+      <c r="C136" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C136" s="48" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="44"/>
+      <c r="B137" s="64" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="67" t="s">
+      <c r="C137" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="48" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="44"/>
+      <c r="B138" s="64" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="67" t="s">
+      <c r="C138" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C138" s="48" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="44"/>
+      <c r="B139" s="64" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="47"/>
-      <c r="B139" s="67" t="s">
+      <c r="C139" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C139" s="48" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="44"/>
+      <c r="B140" s="64" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
-      <c r="B140" s="67" t="s">
+      <c r="C140" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C140" s="48" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="44"/>
+      <c r="B141" s="64" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="47"/>
-      <c r="B141" s="67" t="s">
+      <c r="C141" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="48" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="44"/>
+      <c r="B142" s="64" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="47"/>
-      <c r="B142" s="67" t="s">
+      <c r="C142" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C142" s="48" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="44"/>
+      <c r="B143" s="64" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="47"/>
-      <c r="B143" s="67" t="s">
+      <c r="C143" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="48" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="44"/>
+      <c r="B144" s="64" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
-      <c r="B144" s="67" t="s">
+      <c r="C144" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C144" s="48" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="44"/>
+      <c r="B145" s="64" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
-      <c r="B145" s="67" t="s">
+      <c r="C145" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C145" s="48" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="44"/>
+      <c r="B146" s="64" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
-      <c r="B146" s="67" t="s">
+      <c r="C146" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="48" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="44"/>
+      <c r="B147" s="64" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
-      <c r="B147" s="67" t="s">
+      <c r="C147" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="48" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="44"/>
+      <c r="B148" s="64" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
-      <c r="B148" s="67" t="s">
+      <c r="C148" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C148" s="48" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="44"/>
+      <c r="B149" s="64" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="47"/>
-      <c r="B149" s="67" t="s">
+      <c r="C149" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="C149" s="48" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="44"/>
+      <c r="B150" s="64" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
-      <c r="B150" s="67" t="s">
+      <c r="C150" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="48" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="44"/>
+      <c r="B151" s="64" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
-      <c r="B151" s="67" t="s">
+      <c r="C151" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C151" s="48" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="44"/>
+      <c r="B152" s="64" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="47"/>
-      <c r="B152" s="67" t="s">
+      <c r="C152" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C152" s="48" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="44"/>
+      <c r="B153" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C153" s="45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="47"/>
-      <c r="B153" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C153" s="48" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="44"/>
+      <c r="B154" s="64" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="47"/>
-      <c r="B154" s="67" t="s">
+      <c r="C154" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C154" s="48" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="44"/>
+      <c r="B155" s="64" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="B155" s="67" t="s">
+      <c r="C155" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C155" s="48" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="44"/>
+      <c r="B156" s="64" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
-      <c r="B156" s="67" t="s">
+      <c r="C156" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C156" s="48" t="s">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
+      <c r="B157" s="64" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="47"/>
-      <c r="B157" s="67" t="s">
+      <c r="C157" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="C157" s="48" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="44"/>
+      <c r="B158" s="64" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="47"/>
-      <c r="B158" s="67" t="s">
+      <c r="C158" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C158" s="48" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
+      <c r="B159" s="64" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="47"/>
-      <c r="B159" s="67" t="s">
+      <c r="C159" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="C159" s="48" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="44"/>
+      <c r="B160" s="64" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="47"/>
-      <c r="B160" s="67" t="s">
+      <c r="C160" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="C160" s="48" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="44"/>
+      <c r="B161" s="64" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="47"/>
-      <c r="B161" s="67" t="s">
+      <c r="C161" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="C161" s="48" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="44"/>
+      <c r="B162" s="64" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="47"/>
-      <c r="B162" s="67" t="s">
+      <c r="C162" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C162" s="48" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="44"/>
+      <c r="B163" s="64" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="47"/>
-      <c r="B163" s="67" t="s">
+      <c r="C163" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C163" s="48" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="64" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="47"/>
-      <c r="B164" s="67" t="s">
+      <c r="C164" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C164" s="48" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+      <c r="B165" s="64" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="47"/>
-      <c r="B165" s="67" t="s">
+      <c r="C165" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="C165" s="48" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+      <c r="B166" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C166" s="45" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="47"/>
-      <c r="B166" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C166" s="48" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="44"/>
+      <c r="B167" s="64" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="47"/>
-      <c r="B167" s="67" t="s">
+      <c r="C167" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C167" s="48" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="44"/>
+      <c r="B168" s="64" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="47"/>
-      <c r="B168" s="67" t="s">
+      <c r="C168" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C168" s="48" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="44"/>
+      <c r="B169" s="64" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="47"/>
-      <c r="B169" s="67" t="s">
+      <c r="C169" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C169" s="48" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="44"/>
+      <c r="B170" s="64" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="47"/>
-      <c r="B170" s="67" t="s">
+      <c r="C170" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C170" s="48" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="44"/>
+      <c r="B171" s="64" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="47"/>
-      <c r="B171" s="67" t="s">
+      <c r="C171" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C171" s="48" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="44"/>
+      <c r="B172" s="64" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="47"/>
-      <c r="B172" s="67" t="s">
+      <c r="C172" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C172" s="48" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="44"/>
+      <c r="B173" s="64" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="47"/>
-      <c r="B173" s="67" t="s">
+      <c r="C173" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="C173" s="48" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="44"/>
+      <c r="B174" s="64" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="47"/>
-      <c r="B174" s="67" t="s">
+      <c r="C174" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C174" s="48" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="44"/>
+      <c r="B175" s="64" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="47"/>
-      <c r="B175" s="67" t="s">
+      <c r="C175" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="C175" s="48" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="44"/>
+      <c r="B176" s="64" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="47"/>
-      <c r="B176" s="67" t="s">
+      <c r="C176" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="C176" s="48" t="s">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="44"/>
+      <c r="B177" s="64" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="47"/>
-      <c r="B177" s="67" t="s">
+      <c r="C177" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C177" s="48" t="s">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="44"/>
+      <c r="B178" s="64" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="47"/>
-      <c r="B178" s="67" t="s">
+      <c r="C178" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="C178" s="48" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="44"/>
+      <c r="B179" s="64" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="47"/>
-      <c r="B179" s="67" t="s">
+      <c r="C179" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="C179" s="48" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="44"/>
+      <c r="B180" s="64" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="47"/>
-      <c r="B180" s="67" t="s">
+      <c r="C180" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C180" s="48" t="s">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="44"/>
+      <c r="B181" s="64" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="47"/>
-      <c r="B181" s="67" t="s">
+      <c r="C181" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="C181" s="48" t="s">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="44"/>
+      <c r="B182" s="64" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="47"/>
-      <c r="B182" s="67" t="s">
+      <c r="C182" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C182" s="48" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="44"/>
+      <c r="B183" s="64" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="47"/>
-      <c r="B183" s="67" t="s">
+      <c r="C183" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="C183" s="48" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="44"/>
+      <c r="B184" s="64" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
-      <c r="B184" s="67" t="s">
+      <c r="C184" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C184" s="48" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="44"/>
+      <c r="B185" s="64" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="47"/>
-      <c r="B185" s="67" t="s">
+      <c r="C185" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="C185" s="48" t="s">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="44"/>
+      <c r="B186" s="64" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="47"/>
-      <c r="B186" s="67" t="s">
+      <c r="C186" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="C186" s="48" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="44"/>
+      <c r="B187" s="64" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="47"/>
-      <c r="B187" s="67" t="s">
+      <c r="C187" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="C187" s="48" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="44"/>
+      <c r="B188" s="64" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="47"/>
-      <c r="B188" s="67" t="s">
+      <c r="C188" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C188" s="48" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="44"/>
+      <c r="B189" s="64" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="47"/>
-      <c r="B189" s="67" t="s">
+      <c r="C189" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C189" s="48" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="44"/>
+      <c r="B190" s="64" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="47"/>
-      <c r="B190" s="67" t="s">
+      <c r="C190" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="C190" s="48" t="s">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="44"/>
+      <c r="B191" s="64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="47"/>
-      <c r="B191" s="67" t="s">
+      <c r="C191" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="C191" s="48" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="44"/>
+      <c r="B192" s="64" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="47"/>
-      <c r="B192" s="67" t="s">
+      <c r="C192" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="C192" s="48" t="s">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="44"/>
+      <c r="B193" s="64" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="47"/>
-      <c r="B193" s="67" t="s">
+      <c r="C193" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="C193" s="48" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="44"/>
+      <c r="B194" s="64" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="47"/>
-      <c r="B194" s="67" t="s">
+      <c r="C194" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C194" s="48" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="44"/>
+      <c r="B195" s="64" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="47"/>
-      <c r="B195" s="67" t="s">
+      <c r="C195" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="C195" s="48" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="44"/>
+      <c r="B196" s="64" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="47"/>
-      <c r="B196" s="67" t="s">
+      <c r="C196" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="C196" s="48" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="44"/>
+      <c r="B197" s="64" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="47"/>
-      <c r="B197" s="67" t="s">
+      <c r="C197" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="C197" s="48" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="44"/>
+      <c r="B198" s="64" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="47"/>
-      <c r="B198" s="67" t="s">
+      <c r="C198" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C198" s="48" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="44"/>
+      <c r="B199" s="64" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="47"/>
-      <c r="B199" s="67" t="s">
+      <c r="C199" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C199" s="48" t="s">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="44"/>
+      <c r="B200" s="64" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="47"/>
-      <c r="B200" s="67" t="s">
+      <c r="C200" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="C200" s="48" t="s">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="44"/>
+      <c r="B201" s="64" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="47"/>
-      <c r="B201" s="67" t="s">
+      <c r="C201" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="C201" s="48" t="s">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="44"/>
+      <c r="B202" s="64" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="47"/>
-      <c r="B202" s="67" t="s">
+      <c r="C202" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="C202" s="48" t="s">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="44"/>
+      <c r="B203" s="64" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="47"/>
-      <c r="B203" s="67" t="s">
+      <c r="C203" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="C203" s="48" t="s">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="44"/>
+      <c r="B204" s="64" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="47"/>
-      <c r="B204" s="67" t="s">
+      <c r="C204" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="C204" s="48" t="s">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="44"/>
+      <c r="B205" s="64" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="47"/>
-      <c r="B205" s="67" t="s">
+      <c r="C205" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="48" t="s">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="44"/>
+      <c r="B206" s="64" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="47"/>
-      <c r="B206" s="67" t="s">
+      <c r="C206" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="C206" s="48" t="s">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="44"/>
+      <c r="B207" s="64" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="47"/>
-      <c r="B207" s="67" t="s">
+      <c r="C207" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="C207" s="48" t="s">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="44"/>
+      <c r="B208" s="64" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="47"/>
-      <c r="B208" s="67" t="s">
+      <c r="C208" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="C208" s="48" t="s">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="44"/>
+      <c r="B209" s="64" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="47"/>
-      <c r="B209" s="67" t="s">
+      <c r="C209" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="C209" s="48" t="s">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="44"/>
+      <c r="B210" s="64" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="47"/>
-      <c r="B210" s="67" t="s">
+      <c r="C210" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="C210" s="48" t="s">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="44"/>
+      <c r="B211" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" s="45" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="47"/>
-      <c r="B211" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="C211" s="48" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="44"/>
+      <c r="B212" s="64" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="47"/>
-      <c r="B212" s="67" t="s">
+      <c r="C212" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="C212" s="48" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="44"/>
+      <c r="B213" s="64" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="47"/>
-      <c r="B213" s="67" t="s">
+      <c r="C213" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="C213" s="48" t="s">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="44"/>
+      <c r="B214" s="64" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="47"/>
-      <c r="B214" s="67" t="s">
+      <c r="C214" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="C214" s="48" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="44"/>
+      <c r="B215" s="64" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="47"/>
-      <c r="B215" s="67" t="s">
+      <c r="C215" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="C215" s="48" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="44"/>
+      <c r="B216" s="64" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="47"/>
-      <c r="B216" s="67" t="s">
+      <c r="C216" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="C216" s="48" t="s">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="44"/>
+      <c r="B217" s="64" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="47"/>
-      <c r="B217" s="67" t="s">
+      <c r="C217" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="C217" s="48" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="44"/>
+      <c r="B218" s="64" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="47"/>
-      <c r="B218" s="67" t="s">
+      <c r="C218" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="C218" s="48" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="44"/>
+      <c r="B219" s="64" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="47"/>
-      <c r="B219" s="67" t="s">
+      <c r="C219" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="C219" s="48" t="s">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="44"/>
+      <c r="B220" s="64" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="47"/>
-      <c r="B220" s="67" t="s">
+      <c r="C220" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="C220" s="48" t="s">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="44"/>
+      <c r="B221" s="64" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="47"/>
-      <c r="B221" s="67" t="s">
+      <c r="C221" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="C221" s="48" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="44"/>
+      <c r="B222" s="64" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="47"/>
-      <c r="B222" s="67" t="s">
+      <c r="C222" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="C222" s="48" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="44"/>
+      <c r="B223" s="64" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="47"/>
-      <c r="B223" s="67" t="s">
+      <c r="C223" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="C223" s="48" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="44"/>
+      <c r="B224" s="64" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="47"/>
-      <c r="B224" s="67" t="s">
+      <c r="C224" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="C224" s="48" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="44"/>
+      <c r="B225" s="64" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="47"/>
-      <c r="B225" s="67" t="s">
+      <c r="C225" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="C225" s="48" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="44"/>
+      <c r="B226" s="64" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="47"/>
-      <c r="B226" s="67" t="s">
+      <c r="C226" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="C226" s="48" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="44"/>
+      <c r="B227" s="64" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="47"/>
-      <c r="B227" s="67" t="s">
+      <c r="C227" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C227" s="48" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="44"/>
+      <c r="B228" s="64" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="47"/>
-      <c r="B228" s="67" t="s">
+      <c r="C228" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="C228" s="48" t="s">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="44"/>
+      <c r="B229" s="64" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="47"/>
-      <c r="B229" s="67" t="s">
+      <c r="C229" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="C229" s="48" t="s">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="44"/>
+      <c r="B230" s="64" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="47"/>
-      <c r="B230" s="67" t="s">
+      <c r="C230" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="C230" s="48" t="s">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="44"/>
+      <c r="B231" s="64" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="47"/>
-      <c r="B231" s="67" t="s">
+      <c r="C231" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="C231" s="48" t="s">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="44"/>
+      <c r="B232" s="64" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="47"/>
-      <c r="B232" s="67" t="s">
+      <c r="C232" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="C232" s="48" t="s">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="44"/>
+      <c r="B233" s="64" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="47"/>
-      <c r="B233" s="67" t="s">
+      <c r="C233" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="C233" s="48" t="s">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="44"/>
+      <c r="B234" s="64" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="47"/>
-      <c r="B234" s="67" t="s">
+      <c r="C234" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="C234" s="48" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="44"/>
+      <c r="B235" s="64" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="47"/>
-      <c r="B235" s="67" t="s">
+      <c r="C235" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="C235" s="48" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="44"/>
+      <c r="B236" s="64" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="47"/>
-      <c r="B236" s="67" t="s">
+      <c r="C236" s="45" t="s">
         <v>351</v>
       </c>
-      <c r="C236" s="48" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="44"/>
+      <c r="B237" s="64" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="47"/>
-      <c r="B237" s="67" t="s">
+      <c r="C237" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="C237" s="48" t="s">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="44"/>
+      <c r="B238" s="64" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="47"/>
-      <c r="B238" s="67" t="s">
+      <c r="C238" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="C238" s="48" t="s">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="44"/>
+      <c r="B239" s="64" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="47"/>
-      <c r="B239" s="67" t="s">
+      <c r="C239" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="C239" s="48" t="s">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="44"/>
+      <c r="B240" s="64" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="47"/>
-      <c r="B240" s="67" t="s">
+      <c r="C240" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="C240" s="48" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="44"/>
+      <c r="B241" s="64" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="47"/>
-      <c r="B241" s="67" t="s">
+      <c r="C241" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="C241" s="48" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="44"/>
+      <c r="B242" s="64" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="47"/>
-      <c r="B242" s="67" t="s">
+      <c r="C242" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="C242" s="48" t="s">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="44"/>
+      <c r="B243" s="64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="47"/>
-      <c r="B243" s="67" t="s">
+      <c r="C243" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="C243" s="48" t="s">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="44"/>
+      <c r="B244" s="64" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="47"/>
-      <c r="B244" s="67" t="s">
+      <c r="C244" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="C244" s="48" t="s">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="44"/>
+      <c r="B245" s="64" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="47"/>
-      <c r="B245" s="67" t="s">
+      <c r="C245" s="45"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="44"/>
+      <c r="B246" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="C245" s="48"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="47"/>
-      <c r="B246" s="67" t="s">
+      <c r="C246" s="45"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="44"/>
+      <c r="B247" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="C246" s="48"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="47"/>
-      <c r="B247" s="67" t="s">
+      <c r="C247" s="45"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="44"/>
+      <c r="B248" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="C247" s="48"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="47"/>
-      <c r="B248" s="67" t="s">
+      <c r="C248" s="45"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="44"/>
+      <c r="B249" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="C248" s="48"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="47"/>
-      <c r="B249" s="67" t="s">
+      <c r="C249" s="45"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="44"/>
+      <c r="B250" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C249" s="48"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="47"/>
-      <c r="B250" s="67" t="s">
+      <c r="C250" s="45"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="44"/>
+      <c r="B251" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="C250" s="48"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="47"/>
-      <c r="B251" s="67" t="s">
+      <c r="C251" s="45"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="44"/>
+      <c r="B252" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="C251" s="48"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="47"/>
-      <c r="B252" s="67" t="s">
+      <c r="C252" s="45"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="44"/>
+      <c r="B253" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="C252" s="48"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="47"/>
-      <c r="B253" s="67" t="s">
+      <c r="C253" s="45"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="44"/>
+      <c r="B254" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="C253" s="48"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="47"/>
-      <c r="B254" s="67" t="s">
+      <c r="C254" s="45"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="44"/>
+      <c r="B255" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="C254" s="48"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="47"/>
-      <c r="B255" s="67" t="s">
+      <c r="C255" s="45"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="44"/>
+      <c r="B256" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="C255" s="48"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="47"/>
-      <c r="B256" s="67" t="s">
+      <c r="C256" s="45"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="44"/>
+      <c r="B257" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="C256" s="48"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="47"/>
-      <c r="B257" s="67" t="s">
+      <c r="C257" s="45"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="44"/>
+      <c r="B258" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="C257" s="48"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="47"/>
-      <c r="B258" s="67" t="s">
+      <c r="C258" s="45"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="44"/>
+      <c r="B259" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="C258" s="48"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="47"/>
-      <c r="B259" s="67" t="s">
+      <c r="C259" s="45"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="44"/>
+      <c r="B260" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C259" s="48"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="47"/>
-      <c r="B260" s="67" t="s">
+      <c r="C260" s="45"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="44"/>
+      <c r="B261" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="C260" s="48"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="47"/>
-      <c r="B261" s="67" t="s">
+      <c r="C261" s="45"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="44"/>
+      <c r="B262" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="C261" s="48"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="47"/>
-      <c r="B262" s="67" t="s">
+      <c r="C262" s="45"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="44"/>
+      <c r="B263" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="C262" s="48"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="47"/>
-      <c r="B263" s="67" t="s">
+      <c r="C263" s="45"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="44"/>
+      <c r="B264" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="C263" s="48"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="47"/>
-      <c r="B264" s="67" t="s">
+      <c r="C264" s="45"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="44"/>
+      <c r="B265" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="C264" s="48"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="47"/>
-      <c r="B265" s="67" t="s">
+      <c r="C265" s="45"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="44"/>
+      <c r="B266" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="C265" s="48"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="47"/>
-      <c r="B266" s="67" t="s">
+      <c r="C266" s="45"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="44"/>
+      <c r="B267" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="C266" s="48"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="47"/>
-      <c r="B267" s="67" t="s">
+      <c r="C267" s="45"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="44"/>
+      <c r="B268" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="48"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="47"/>
-      <c r="B268" s="67" t="s">
+      <c r="C268" s="45"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="44"/>
+      <c r="B269" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="C268" s="48"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="47"/>
-      <c r="B269" s="67" t="s">
+      <c r="C269" s="45"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="44"/>
+      <c r="B270" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="C269" s="48"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="47"/>
-      <c r="B270" s="67" t="s">
+      <c r="C270" s="45"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="44"/>
+      <c r="B271" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C270" s="48"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="47"/>
-      <c r="B271" s="67" t="s">
+      <c r="C271" s="45"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="44"/>
+      <c r="B272" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="48"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="47"/>
-      <c r="B272" s="67" t="s">
+      <c r="C272" s="45"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="44"/>
+      <c r="B273" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="C272" s="48"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="47"/>
-      <c r="B273" s="67" t="s">
+      <c r="C273" s="45"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="44"/>
+      <c r="B274" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="C273" s="48"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="47"/>
-      <c r="B274" s="67" t="s">
+      <c r="C274" s="45"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="44"/>
+      <c r="B275" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="C274" s="48"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="47"/>
-      <c r="B275" s="67" t="s">
+      <c r="C275" s="45"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="44"/>
+      <c r="B276" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="C275" s="48"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="47"/>
-      <c r="B276" s="67" t="s">
+      <c r="C276" s="45"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="44"/>
+      <c r="B277" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="C276" s="48"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="47"/>
-      <c r="B277" s="67" t="s">
+      <c r="C277" s="45"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="44"/>
+      <c r="B278" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="C277" s="48"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="47"/>
-      <c r="B278" s="67" t="s">
+      <c r="C278" s="45"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="44"/>
+      <c r="B279" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="C278" s="48"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="47"/>
-      <c r="B279" s="67" t="s">
+      <c r="C279" s="45"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="44"/>
+      <c r="B280" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="C279" s="48"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="47"/>
-      <c r="B280" s="67" t="s">
+      <c r="C280" s="45"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="44"/>
+      <c r="B281" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="C280" s="48"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="47"/>
-      <c r="B281" s="67" t="s">
+      <c r="C281" s="45"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="44"/>
+      <c r="B282" s="64" t="s">
         <v>405</v>
       </c>
-      <c r="C281" s="48"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="47"/>
-      <c r="B282" s="67" t="s">
+      <c r="C282" s="45"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="44"/>
+      <c r="B283" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="C282" s="48"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="47"/>
-      <c r="B283" s="67" t="s">
+      <c r="C283" s="45"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="44"/>
+      <c r="B284" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="C283" s="48"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="47"/>
-      <c r="B284" s="67" t="s">
+      <c r="C284" s="45"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="44"/>
+      <c r="B285" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="C284" s="48"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="47"/>
-      <c r="B285" s="67" t="s">
+      <c r="C285" s="45"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="44"/>
+      <c r="B286" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C285" s="48"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="47"/>
-      <c r="B286" s="67" t="s">
+      <c r="C286" s="45"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="44"/>
+      <c r="B287" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C286" s="48"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="47"/>
-      <c r="B287" s="67" t="s">
+      <c r="C287" s="45"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="44"/>
+      <c r="B288" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C287" s="48"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="47"/>
-      <c r="B288" s="67" t="s">
+      <c r="C288" s="45"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="44"/>
+      <c r="B289" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C288" s="48"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="47"/>
-      <c r="B289" s="67" t="s">
+      <c r="C289" s="45"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="44"/>
+      <c r="B290" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C289" s="48"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="47"/>
-      <c r="B290" s="67" t="s">
+      <c r="C290" s="45"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="44"/>
+      <c r="B291" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C290" s="48"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="47"/>
-      <c r="B291" s="67" t="s">
+      <c r="C291" s="45"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="44"/>
+      <c r="B292" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="48"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="47"/>
-      <c r="B292" s="67" t="s">
+      <c r="C292" s="45"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="44"/>
+      <c r="B293" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C292" s="48"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="47"/>
-      <c r="B293" s="67" t="s">
+      <c r="C293" s="45"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="44"/>
+      <c r="B294" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C293" s="48"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="47"/>
-      <c r="B294" s="67" t="s">
+      <c r="C294" s="45"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="44"/>
+      <c r="B295" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C294" s="48"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="47"/>
-      <c r="B295" s="67" t="s">
+      <c r="C295" s="45"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="44"/>
+      <c r="B296" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C295" s="48"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="47"/>
-      <c r="B296" s="67" t="s">
+      <c r="C296" s="45"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="44"/>
+      <c r="B297" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C296" s="48"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="47"/>
-      <c r="B297" s="67" t="s">
+      <c r="C297" s="45"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="44"/>
+      <c r="B298" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C297" s="48"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="47"/>
-      <c r="B298" s="67" t="s">
+      <c r="C298" s="45"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="44"/>
+      <c r="B299" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C298" s="48"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="47"/>
-      <c r="B299" s="67" t="s">
+      <c r="C299" s="45"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="44"/>
+      <c r="B300" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="C299" s="48"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="47"/>
-      <c r="B300" s="67" t="s">
+      <c r="C300" s="45"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="44"/>
+      <c r="B301" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="C300" s="48"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="47"/>
-      <c r="B301" s="67" t="s">
+      <c r="C301" s="45"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="44"/>
+      <c r="B302" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C301" s="48"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="47"/>
-      <c r="B302" s="67" t="s">
+      <c r="C302" s="45"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="44"/>
+      <c r="B303" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="C302" s="48"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="47"/>
-      <c r="B303" s="67" t="s">
+      <c r="C303" s="45"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="44"/>
+      <c r="B304" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C303" s="48"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="47"/>
-      <c r="B304" s="67" t="s">
+      <c r="C304" s="45"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="44"/>
+      <c r="B305" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="C304" s="48"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="47"/>
-      <c r="B305" s="67" t="s">
+      <c r="C305" s="45"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="44"/>
+      <c r="B306" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="C305" s="48"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="47"/>
-      <c r="B306" s="67" t="s">
+      <c r="C306" s="45"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="44"/>
+      <c r="B307" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C306" s="48"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="47"/>
-      <c r="B307" s="67" t="s">
+      <c r="C307" s="45"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="44"/>
+      <c r="B308" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C307" s="48"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="47"/>
-      <c r="B308" s="67" t="s">
+      <c r="C308" s="45"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="44"/>
+      <c r="B309" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C308" s="48"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="47"/>
-      <c r="B309" s="67" t="s">
+      <c r="C309" s="45"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="44"/>
+      <c r="B310" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C309" s="48"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="47"/>
-      <c r="B310" s="67" t="s">
+      <c r="C310" s="45"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="44"/>
+      <c r="B311" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="C310" s="48"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="47"/>
-      <c r="B311" s="67" t="s">
+      <c r="C311" s="45"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="44"/>
+      <c r="B312" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C311" s="48"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="47"/>
-      <c r="B312" s="67" t="s">
+      <c r="C312" s="45"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="44"/>
+      <c r="B313" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C312" s="48"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="47"/>
-      <c r="B313" s="67" t="s">
+      <c r="C313" s="45"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="44"/>
+      <c r="B314" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="C313" s="48"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="47"/>
-      <c r="B314" s="67" t="s">
+      <c r="C314" s="45"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="44"/>
+      <c r="B315" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C314" s="48"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="47"/>
-      <c r="B315" s="67" t="s">
+      <c r="C315" s="45"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="44"/>
+      <c r="B316" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C316" s="45"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="44"/>
+      <c r="B317" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C317" s="45"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="44"/>
+      <c r="B318" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="C315" s="48"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="47"/>
-      <c r="B316" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C316" s="48"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="47"/>
-      <c r="B317" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="C317" s="48"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="47"/>
-      <c r="B318" s="67" t="s">
+      <c r="C318" s="45"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="44"/>
+      <c r="B319" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="C318" s="48"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="47"/>
-      <c r="B319" s="67" t="s">
+      <c r="C319" s="45"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="44"/>
+      <c r="B320" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="C319" s="48"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="47"/>
-      <c r="B320" s="67" t="s">
+      <c r="C320" s="45"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="44"/>
+      <c r="B321" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="C320" s="48"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="47"/>
-      <c r="B321" s="67" t="s">
+      <c r="C321" s="45"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="44"/>
+      <c r="B322" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="C321" s="48"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="47"/>
-      <c r="B322" s="67" t="s">
+      <c r="C322" s="45"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="44"/>
+      <c r="B323" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="C322" s="48"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="47"/>
-      <c r="B323" s="67" t="s">
+      <c r="C323" s="45"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="44"/>
+      <c r="B324" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="C323" s="48"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="47"/>
-      <c r="B324" s="67" t="s">
+      <c r="C324" s="45"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="44"/>
+      <c r="B325" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C324" s="48"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="47"/>
-      <c r="B325" s="67" t="s">
+      <c r="C325" s="45"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="44"/>
+      <c r="B326" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C325" s="48"/>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="47"/>
-      <c r="B326" s="67" t="s">
+      <c r="C326" s="45"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="44"/>
+      <c r="B327" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="C326" s="48"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="47"/>
-      <c r="B327" s="67" t="s">
+      <c r="C327" s="45"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="44"/>
+      <c r="B328" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="C327" s="48"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="47"/>
-      <c r="B328" s="67" t="s">
+      <c r="C328" s="45"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="44"/>
+      <c r="B329" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="C328" s="48"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="47"/>
-      <c r="B329" s="67" t="s">
+      <c r="C329" s="45"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="44"/>
+      <c r="B330" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="C329" s="48"/>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="47"/>
-      <c r="B330" s="67" t="s">
+      <c r="C330" s="45"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="44"/>
+      <c r="B331" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="C330" s="48"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="47"/>
-      <c r="B331" s="67" t="s">
+      <c r="C331" s="45"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="44"/>
+      <c r="B332" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="C331" s="48"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="47"/>
-      <c r="B332" s="67" t="s">
+      <c r="C332" s="45"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="44"/>
+      <c r="B333" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C333" s="45"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="44"/>
+      <c r="B334" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="C332" s="48"/>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="47"/>
-      <c r="B333" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C333" s="48"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="47"/>
-      <c r="B334" s="67" t="s">
+      <c r="C334" s="45"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="44"/>
+      <c r="B335" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="C334" s="48"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="47"/>
-      <c r="B335" s="67" t="s">
+      <c r="C335" s="45"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="44"/>
+      <c r="B336" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="C335" s="48"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="47"/>
-      <c r="B336" s="67" t="s">
+      <c r="C336" s="45"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="44"/>
+      <c r="B337" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="C336" s="48"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="47"/>
-      <c r="B337" s="67" t="s">
+      <c r="C337" s="45"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="44"/>
+      <c r="B338" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="C337" s="48"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="47"/>
-      <c r="B338" s="67" t="s">
+      <c r="C338" s="45"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="44"/>
+      <c r="B339" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="C338" s="48"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="47"/>
-      <c r="B339" s="67" t="s">
+      <c r="C339" s="45"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="44"/>
+      <c r="B340" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="C339" s="48"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="47"/>
-      <c r="B340" s="67" t="s">
+      <c r="C340" s="45"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="44"/>
+      <c r="B341" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="C340" s="48"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="47"/>
-      <c r="B341" s="67" t="s">
+      <c r="C341" s="45"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="44"/>
+      <c r="B342" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="C341" s="48"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="47"/>
-      <c r="B342" s="67" t="s">
+      <c r="C342" s="45"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="44"/>
+      <c r="B343" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="C342" s="48"/>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="47"/>
-      <c r="B343" s="67" t="s">
+      <c r="C343" s="45"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="44"/>
+      <c r="B344" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="C343" s="48"/>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="47"/>
-      <c r="B344" s="67" t="s">
+      <c r="C344" s="45"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="44"/>
+      <c r="B345" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="C344" s="48"/>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="47"/>
-      <c r="B345" s="67" t="s">
+      <c r="C345" s="45"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="44"/>
+      <c r="B346" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="C345" s="48"/>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="47"/>
-      <c r="B346" s="67" t="s">
+      <c r="C346" s="45"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="44"/>
+      <c r="B347" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="C346" s="48"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="47"/>
-      <c r="B347" s="67" t="s">
+      <c r="C347" s="45"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="44"/>
+      <c r="B348" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="C347" s="48"/>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="47"/>
-      <c r="B348" s="67" t="s">
+      <c r="C348" s="45"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="44"/>
+      <c r="B349" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="C348" s="48"/>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="47"/>
-      <c r="B349" s="67" t="s">
+      <c r="C349" s="45"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="44"/>
+      <c r="B350" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="C349" s="48"/>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="47"/>
-      <c r="B350" s="67" t="s">
+      <c r="C350" s="45"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="44"/>
+      <c r="B351" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="C350" s="48"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="47"/>
-      <c r="B351" s="67" t="s">
+      <c r="C351" s="45"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="44"/>
+      <c r="B352" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="C351" s="48"/>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="47"/>
-      <c r="B352" s="67" t="s">
+      <c r="C352" s="45"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="44"/>
+      <c r="B353" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="C352" s="48"/>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="47"/>
-      <c r="B353" s="67" t="s">
+      <c r="C353" s="45"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="44"/>
+      <c r="B354" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="C353" s="48"/>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="47"/>
-      <c r="B354" s="67" t="s">
+      <c r="C354" s="45"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="44"/>
+      <c r="B355" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="C354" s="48"/>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="47"/>
-      <c r="B355" s="67" t="s">
+      <c r="C355" s="45"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="44"/>
+      <c r="B356" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="C355" s="48"/>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="47"/>
-      <c r="B356" s="67" t="s">
+      <c r="C356" s="45"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="44"/>
+      <c r="B357" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C357" s="45"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="44"/>
+      <c r="B358" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="C356" s="48"/>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="47"/>
-      <c r="B357" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="C357" s="48"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="47"/>
-      <c r="B358" s="67" t="s">
+      <c r="C358" s="45"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="44"/>
+      <c r="B359" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="C358" s="48"/>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="47"/>
-      <c r="B359" s="67" t="s">
+      <c r="C359" s="45"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="44"/>
+      <c r="B360" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="C360" s="45"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="44"/>
+      <c r="B361" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="C359" s="48"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="47"/>
-      <c r="B360" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C360" s="48"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="47"/>
-      <c r="B361" s="67" t="s">
+      <c r="C361" s="45"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="44"/>
+      <c r="B362" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="C361" s="48"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="47"/>
-      <c r="B362" s="67" t="s">
+      <c r="C362" s="45"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="44"/>
+      <c r="B363" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="C362" s="48"/>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="47"/>
-      <c r="B363" s="67" t="s">
+      <c r="C363" s="45"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="44"/>
+      <c r="B364" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C363" s="48"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="47"/>
-      <c r="B364" s="67" t="s">
+      <c r="C364" s="45"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="44"/>
+      <c r="B365" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="C364" s="48"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="47"/>
-      <c r="B365" s="67" t="s">
+      <c r="C365" s="45"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="44"/>
+      <c r="B366" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="C365" s="48"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="47"/>
-      <c r="B366" s="67" t="s">
+      <c r="C366" s="45"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="44"/>
+      <c r="B367" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="C366" s="48"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="47"/>
-      <c r="B367" s="67" t="s">
+      <c r="C367" s="45"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="44"/>
+      <c r="B368" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="C367" s="48"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="47"/>
-      <c r="B368" s="67" t="s">
+      <c r="C368" s="45"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="44"/>
+      <c r="B369" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="C368" s="48"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="47"/>
-      <c r="B369" s="67" t="s">
+      <c r="C369" s="45"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="44"/>
+      <c r="B370" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="C369" s="48"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="47"/>
-      <c r="B370" s="67" t="s">
+      <c r="C370" s="45"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="44"/>
+      <c r="B371" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="C370" s="48"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="47"/>
-      <c r="B371" s="67" t="s">
+      <c r="C371" s="45"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="44"/>
+      <c r="B372" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C371" s="48"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="47"/>
-      <c r="B372" s="67" t="s">
+      <c r="C372" s="45"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="44"/>
+      <c r="B373" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="C372" s="48"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="47"/>
-      <c r="B373" s="67" t="s">
+      <c r="C373" s="45"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="44"/>
+      <c r="B374" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="C373" s="48"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="47"/>
-      <c r="B374" s="67" t="s">
+      <c r="C374" s="45"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="44"/>
+      <c r="B375" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="C374" s="48"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="47"/>
-      <c r="B375" s="67" t="s">
+      <c r="C375" s="45"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="44"/>
+      <c r="B376" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="C375" s="48"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="47"/>
-      <c r="B376" s="67" t="s">
+      <c r="C376" s="45"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="44"/>
+      <c r="B377" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C376" s="48"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="47"/>
-      <c r="B377" s="67" t="s">
+      <c r="C377" s="45"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="44"/>
+      <c r="B378" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="C377" s="48"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="47"/>
-      <c r="B378" s="67" t="s">
+      <c r="C378" s="45"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="44"/>
+      <c r="B379" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="C378" s="48"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="47"/>
-      <c r="B379" s="67" t="s">
+      <c r="C379" s="45"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="44"/>
+      <c r="B380" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="C379" s="48"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="47"/>
-      <c r="B380" s="67" t="s">
+      <c r="C380" s="45"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="44"/>
+      <c r="B381" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="C380" s="48"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="47"/>
-      <c r="B381" s="67" t="s">
+      <c r="C381" s="45"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="44"/>
+      <c r="B382" s="64" t="s">
         <v>500</v>
       </c>
-      <c r="C381" s="48"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="47"/>
-      <c r="B382" s="67" t="s">
+      <c r="C382" s="45"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="44"/>
+      <c r="B383" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="C382" s="48"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="47"/>
-      <c r="B383" s="67" t="s">
+      <c r="C383" s="45"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="44"/>
+      <c r="B384" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="C383" s="48"/>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="47"/>
-      <c r="B384" s="67" t="s">
+      <c r="C384" s="45"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="44"/>
+      <c r="B385" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="C384" s="48"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="47"/>
-      <c r="B385" s="67" t="s">
+      <c r="C385" s="45"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="44"/>
+      <c r="B386" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="C385" s="48"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="47"/>
-      <c r="B386" s="67" t="s">
+      <c r="C386" s="45"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="44"/>
+      <c r="B387" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C386" s="48"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="47"/>
-      <c r="B387" s="67" t="s">
+      <c r="C387" s="45"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="44"/>
+      <c r="B388" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="C387" s="48"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="47"/>
-      <c r="B388" s="67" t="s">
+      <c r="C388" s="45"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="44"/>
+      <c r="B389" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="C389" s="45"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="44"/>
+      <c r="B390" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="C388" s="48"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="47"/>
-      <c r="B389" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C389" s="48"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="47"/>
-      <c r="B390" s="67" t="s">
+      <c r="C390" s="45"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="44"/>
+      <c r="B391" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="C390" s="48"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="47"/>
-      <c r="B391" s="67" t="s">
+      <c r="C391" s="45"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="44"/>
+      <c r="B392" s="64" t="s">
         <v>509</v>
       </c>
-      <c r="C391" s="48"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="47"/>
-      <c r="B392" s="67" t="s">
+      <c r="C392" s="45"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="44"/>
+      <c r="B393" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="C392" s="48"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="47"/>
-      <c r="B393" s="67" t="s">
+      <c r="C393" s="45"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="44"/>
+      <c r="B394" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="C393" s="48"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="47"/>
-      <c r="B394" s="67" t="s">
+      <c r="C394" s="45"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="44"/>
+      <c r="B395" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="C394" s="48"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="47"/>
-      <c r="B395" s="67" t="s">
+      <c r="C395" s="45"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="44"/>
+      <c r="B396" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="C395" s="48"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="47"/>
-      <c r="B396" s="67" t="s">
+      <c r="C396" s="45"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="44"/>
+      <c r="B397" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="C396" s="48"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="47"/>
-      <c r="B397" s="67" t="s">
+      <c r="C397" s="45"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="44"/>
+      <c r="B398" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="C397" s="48"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="47"/>
-      <c r="B398" s="67" t="s">
+      <c r="C398" s="45"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="44"/>
+      <c r="B399" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="C398" s="48"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="47"/>
-      <c r="B399" s="67" t="s">
+      <c r="C399" s="45"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="44"/>
+      <c r="B400" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="C399" s="48"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="47"/>
-      <c r="B400" s="67" t="s">
+      <c r="C400" s="45"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="44"/>
+      <c r="B401" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="C400" s="48"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="47"/>
-      <c r="B401" s="67" t="s">
+      <c r="C401" s="45"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="44"/>
+      <c r="B402" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="C401" s="48"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="47"/>
-      <c r="B402" s="67" t="s">
+      <c r="C402" s="45"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="44"/>
+      <c r="B403" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="C402" s="48"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="47"/>
-      <c r="B403" s="67" t="s">
+      <c r="C403" s="45"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="44"/>
+      <c r="B404" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="C403" s="48"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="47"/>
-      <c r="B404" s="67" t="s">
+      <c r="C404" s="45"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="44"/>
+      <c r="B405" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="C405" s="45"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="44"/>
+      <c r="B406" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="C404" s="48"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="47"/>
-      <c r="B405" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C405" s="48"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="47"/>
-      <c r="B406" s="67" t="s">
+      <c r="C406" s="45"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="44"/>
+      <c r="B407" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="C406" s="48"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="47"/>
-      <c r="B407" s="67" t="s">
+      <c r="C407" s="45"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="44"/>
+      <c r="B408" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="C407" s="48"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="47"/>
-      <c r="B408" s="67" t="s">
+      <c r="C408" s="45"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="44"/>
+      <c r="B409" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="C408" s="48"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="47"/>
-      <c r="B409" s="67" t="s">
+      <c r="C409" s="45"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="44"/>
+      <c r="B410" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="C410" s="45"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="44"/>
+      <c r="B411" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="C409" s="48"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="47"/>
-      <c r="B410" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C410" s="48"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="47"/>
-      <c r="B411" s="67" t="s">
-        <v>527</v>
-      </c>
-      <c r="C411" s="48"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="45"/>
+    </row>
+    <row r="412" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A412" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B412" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C412" s="48"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="45"/>
+    </row>
+    <row r="413" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A413" s="18"/>
       <c r="B413" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C413" s="48"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="47"/>
+      <c r="C413" s="45"/>
+    </row>
+    <row r="414" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A414" s="44"/>
       <c r="B414" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C414" s="48"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="47"/>
+      <c r="C414" s="45"/>
+    </row>
+    <row r="415" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A415" s="44"/>
       <c r="B415" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C415" s="48"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="47"/>
+      <c r="C415" s="45"/>
+    </row>
+    <row r="416" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A416" s="44"/>
       <c r="B416" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C416" s="48"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="47"/>
+      <c r="C416" s="45"/>
+    </row>
+    <row r="417" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A417" s="44"/>
       <c r="B417" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C417" s="48"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="47"/>
+      <c r="C417" s="45"/>
+    </row>
+    <row r="418" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A418" s="44"/>
       <c r="B418" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C418" s="48"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="47"/>
+      <c r="C418" s="45"/>
+    </row>
+    <row r="419" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A419" s="44"/>
       <c r="B419" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C419" s="48"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="47"/>
+      <c r="C419" s="45"/>
+    </row>
+    <row r="420" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A420" s="44"/>
       <c r="B420" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C420" s="48"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="47"/>
+      <c r="C420" s="45"/>
+    </row>
+    <row r="421" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A421" s="44"/>
       <c r="B421" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C421" s="48"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="47"/>
+      <c r="C421" s="45"/>
+    </row>
+    <row r="422" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A422" s="44"/>
       <c r="B422" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C422" s="48"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="47"/>
+      <c r="C422" s="45"/>
+    </row>
+    <row r="423" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A423" s="44"/>
       <c r="B423" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="C423" s="48"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="47"/>
+        <v>527</v>
+      </c>
+      <c r="C423" s="45"/>
+    </row>
+    <row r="424" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A424" s="44"/>
       <c r="B424" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C424" s="48"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="47"/>
+      <c r="C424" s="45"/>
+    </row>
+    <row r="425" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A425" s="44"/>
       <c r="B425" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C425" s="45"/>
+    </row>
+    <row r="426" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A426" s="44"/>
+      <c r="B426" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C425" s="48"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="47"/>
-      <c r="B426" s="19" t="s">
+      <c r="C426" s="45"/>
+    </row>
+    <row r="427" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A427" s="44"/>
+      <c r="B427" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="C426" s="48"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="47"/>
-      <c r="B427" s="19" t="s">
+      <c r="C427" s="45"/>
+    </row>
+    <row r="428" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A428" s="44"/>
+      <c r="B428" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="C427" s="48"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="47"/>
-      <c r="B428" s="19" t="s">
+      <c r="C428" s="45"/>
+    </row>
+    <row r="429" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A429" s="44"/>
+      <c r="B429" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="C428" s="48"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="47"/>
-      <c r="B429" s="19" t="s">
+      <c r="C429" s="45"/>
+    </row>
+    <row r="430" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A430" s="44"/>
+      <c r="B430" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="C429" s="48"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="47"/>
-      <c r="B430" s="19" t="s">
+      <c r="C430" s="45"/>
+    </row>
+    <row r="431" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A431" s="44"/>
+      <c r="B431" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="C430" s="48"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="47"/>
-      <c r="B431" s="19" t="s">
+      <c r="C431" s="45"/>
+    </row>
+    <row r="432" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A432" s="44"/>
+      <c r="B432" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="C431" s="48"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="47"/>
-      <c r="B432" s="19" t="s">
+      <c r="C432" s="45"/>
+    </row>
+    <row r="433" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A433" s="44"/>
+      <c r="B433" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="C432" s="48"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="47"/>
-      <c r="B433" s="19" t="s">
+      <c r="C433" s="45"/>
+    </row>
+    <row r="434" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A434" s="44"/>
+      <c r="B434" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="C433" s="48"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="47"/>
-      <c r="B434" s="19" t="s">
+      <c r="C434" s="45"/>
+    </row>
+    <row r="435" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A435" s="44"/>
+      <c r="B435" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="C434" s="48"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="47"/>
-      <c r="B435" s="19" t="s">
+      <c r="C435" s="45"/>
+    </row>
+    <row r="436" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A436" s="44"/>
+      <c r="B436" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="C435" s="48"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="47"/>
-      <c r="B436" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="C436" s="48"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="48" t="s">
+      <c r="C436" s="45"/>
+    </row>
+    <row r="437" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A437" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C437" s="61"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="61"/>
+      <c r="C437" s="58"/>
+    </row>
+    <row r="438" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A438" s="58"/>
       <c r="B438" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="C438" s="61"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="61"/>
+        <v>540</v>
+      </c>
+      <c r="C438" s="58"/>
+    </row>
+    <row r="439" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A439" s="58"/>
       <c r="B439" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C439" s="61"/>
+      <c r="C439" s="58"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="61" t="s">
-        <v>723</v>
-      </c>
-      <c r="B440" s="61"/>
-      <c r="C440" s="61"/>
-    </row>
-    <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A441" s="61"/>
-      <c r="B441" s="68" t="s">
-        <v>724</v>
-      </c>
-      <c r="C441" s="61"/>
-    </row>
-    <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A442" s="61"/>
-      <c r="B442" s="68" t="s">
+      <c r="A440" s="58" t="s">
+        <v>711</v>
+      </c>
+      <c r="B440" s="58"/>
+      <c r="C440" s="58"/>
+    </row>
+    <row r="441" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A441" s="58"/>
+      <c r="B441" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="C441" s="58"/>
+    </row>
+    <row r="442" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A442" s="58"/>
+      <c r="B442" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C442" s="61"/>
-    </row>
-    <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A443" s="61"/>
-      <c r="B443" s="68" t="s">
+      <c r="C442" s="58"/>
+    </row>
+    <row r="443" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A443" s="58"/>
+      <c r="B443" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C443" s="61"/>
-    </row>
-    <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A444" s="61"/>
-      <c r="B444" s="68" t="s">
+      <c r="C443" s="58"/>
+    </row>
+    <row r="444" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A444" s="58"/>
+      <c r="B444" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C444" s="61"/>
-    </row>
-    <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A445" s="61"/>
-      <c r="B445" s="68" t="s">
+      <c r="C444" s="58"/>
+    </row>
+    <row r="445" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A445" s="58"/>
+      <c r="B445" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C445" s="61"/>
-    </row>
-    <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A446" s="61"/>
-      <c r="B446" s="68" t="s">
+      <c r="C445" s="58"/>
+    </row>
+    <row r="446" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A446" s="58"/>
+      <c r="B446" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C446" s="61"/>
-    </row>
-    <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A447" s="61"/>
-      <c r="B447" s="68" t="s">
+      <c r="C446" s="58"/>
+    </row>
+    <row r="447" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A447" s="58"/>
+      <c r="B447" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C447" s="61"/>
-    </row>
-    <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A448" s="61"/>
-      <c r="B448" s="68" t="s">
+      <c r="C447" s="58"/>
+    </row>
+    <row r="448" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A448" s="58"/>
+      <c r="B448" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C448" s="61"/>
-    </row>
-    <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A449" s="61"/>
-      <c r="B449" s="69" t="s">
+      <c r="C448" s="58"/>
+    </row>
+    <row r="449" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A449" s="58"/>
+      <c r="B449" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C449" s="61"/>
-    </row>
-    <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A450" s="61"/>
-      <c r="B450" s="69" t="s">
+      <c r="C449" s="58"/>
+    </row>
+    <row r="450" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A450" s="58"/>
+      <c r="B450" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C450" s="61"/>
-    </row>
-    <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A451" s="61"/>
-      <c r="B451" s="69" t="s">
+      <c r="C450" s="58"/>
+    </row>
+    <row r="451" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A451" s="58"/>
+      <c r="B451" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C451" s="61"/>
-    </row>
-    <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A452" s="61"/>
-      <c r="B452" s="69" t="s">
+      <c r="C451" s="58"/>
+    </row>
+    <row r="452" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A452" s="58"/>
+      <c r="B452" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="C452" s="58"/>
+    </row>
+    <row r="453" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A453" s="58"/>
+      <c r="B453" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C453" s="58"/>
+    </row>
+    <row r="454" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A454" s="58"/>
+      <c r="B454" s="66" t="s">
         <v>528</v>
       </c>
-      <c r="C452" s="61"/>
-    </row>
-    <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A453" s="61"/>
-      <c r="B453" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C453" s="61"/>
-    </row>
-    <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A454" s="61"/>
-      <c r="B454" s="69" t="s">
+      <c r="C454" s="58"/>
+    </row>
+    <row r="455" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A455" s="58"/>
+      <c r="B455" s="66" t="s">
         <v>529</v>
       </c>
-      <c r="C454" s="61"/>
-    </row>
-    <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A455" s="61"/>
-      <c r="B455" s="69" t="s">
+      <c r="C455" s="58"/>
+    </row>
+    <row r="456" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A456" s="58"/>
+      <c r="B456" s="66" t="s">
         <v>530</v>
       </c>
-      <c r="C455" s="61"/>
-    </row>
-    <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A456" s="61"/>
-      <c r="B456" s="69" t="s">
+      <c r="C456" s="58"/>
+    </row>
+    <row r="457" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A457" s="58"/>
+      <c r="B457" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="C456" s="61"/>
-    </row>
-    <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A457" s="61"/>
-      <c r="B457" s="69" t="s">
+      <c r="C457" s="58"/>
+    </row>
+    <row r="458" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A458" s="58"/>
+      <c r="B458" s="66" t="s">
         <v>532</v>
       </c>
-      <c r="C457" s="61"/>
-    </row>
-    <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A458" s="61"/>
-      <c r="B458" s="69" t="s">
+      <c r="C458" s="58"/>
+    </row>
+    <row r="459" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A459" s="58"/>
+      <c r="B459" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="C458" s="61"/>
-    </row>
-    <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A459" s="61"/>
-      <c r="B459" s="69" t="s">
+      <c r="C459" s="58"/>
+    </row>
+    <row r="460" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A460" s="58"/>
+      <c r="B460" s="66" t="s">
         <v>534</v>
       </c>
-      <c r="C459" s="61"/>
-    </row>
-    <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A460" s="61"/>
-      <c r="B460" s="69" t="s">
+      <c r="C460" s="58"/>
+    </row>
+    <row r="461" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A461" s="58"/>
+      <c r="B461" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="C460" s="61"/>
-    </row>
-    <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A461" s="61"/>
-      <c r="B461" s="69" t="s">
+      <c r="C461" s="58"/>
+    </row>
+    <row r="462" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A462" s="58"/>
+      <c r="B462" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="C461" s="61"/>
-    </row>
-    <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A462" s="61"/>
-      <c r="B462" s="69" t="s">
+      <c r="C462" s="58"/>
+    </row>
+    <row r="463" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A463" s="58"/>
+      <c r="B463" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="C462" s="61"/>
-    </row>
-    <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A463" s="61"/>
-      <c r="B463" s="69" t="s">
+      <c r="C463" s="58"/>
+    </row>
+    <row r="464" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A464" s="58"/>
+      <c r="B464" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="C463" s="61"/>
-    </row>
-    <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A464" s="61"/>
-      <c r="B464" s="69" t="s">
+      <c r="C464" s="58"/>
+    </row>
+    <row r="465" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A465" s="58"/>
+      <c r="B465" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="C464" s="61"/>
-    </row>
-    <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A465" s="61"/>
-      <c r="B465" s="69" t="s">
-        <v>540</v>
-      </c>
-      <c r="C465" s="61"/>
+      <c r="C465" s="58"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="61" t="s">
-        <v>725</v>
-      </c>
-      <c r="B466" s="61"/>
-      <c r="C466" s="61"/>
-    </row>
-    <row r="467" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A467" s="61"/>
-      <c r="B467" s="61" t="s">
-        <v>726</v>
-      </c>
-      <c r="C467" s="61"/>
+      <c r="A466" s="58" t="s">
+        <v>713</v>
+      </c>
+      <c r="B466" s="58"/>
+      <c r="C466" s="58"/>
+    </row>
+    <row r="467" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A467" s="58"/>
+      <c r="B467" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="C467" s="58"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="61"/>
-      <c r="B468" s="61"/>
-      <c r="C468" s="61"/>
+      <c r="A468" s="58"/>
+      <c r="B468" s="58"/>
+      <c r="C468" s="58"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="61"/>
-      <c r="B469" s="61"/>
-      <c r="C469" s="61"/>
+      <c r="A469" s="58"/>
+      <c r="B469" s="58"/>
+      <c r="C469" s="58"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="61"/>
-      <c r="B470" s="61"/>
-      <c r="C470" s="61"/>
+      <c r="A470" s="58"/>
+      <c r="B470" s="58"/>
+      <c r="C470" s="58"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="61"/>
-      <c r="B471" s="61"/>
-      <c r="C471" s="61"/>
+      <c r="A471" s="58"/>
+      <c r="B471" s="58"/>
+      <c r="C471" s="58"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="61"/>
-      <c r="B472" s="61"/>
-      <c r="C472" s="61"/>
+      <c r="A472" s="58"/>
+      <c r="B472" s="58"/>
+      <c r="C472" s="58"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="61"/>
-      <c r="B473" s="61"/>
-      <c r="C473" s="61"/>
+      <c r="A473" s="58"/>
+      <c r="B473" s="58"/>
+      <c r="C473" s="58"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="61"/>
-      <c r="B474" s="61"/>
-      <c r="C474" s="61"/>
+      <c r="A474" s="58"/>
+      <c r="B474" s="58"/>
+      <c r="C474" s="58"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="61"/>
-      <c r="B475" s="61"/>
-      <c r="C475" s="61"/>
+      <c r="A475" s="58"/>
+      <c r="B475" s="58"/>
+      <c r="C475" s="58"/>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="61"/>
-      <c r="B476" s="61"/>
-      <c r="C476" s="61"/>
+      <c r="A476" s="58"/>
+      <c r="B476" s="58"/>
+      <c r="C476" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9164,33 +9212,32 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" style="9" width="8.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="9"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>0</v>
@@ -9198,8 +9245,8 @@
       <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>616</v>
+      <c r="E1" s="29" t="s">
+        <v>615</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>5</v>
@@ -9229,70 +9276,44 @@
         <v>15</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26" t="s">
-        <v>778</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>18328</v>
+      </c>
+      <c r="C2" t="s">
         <v>782</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="O2" s="26" t="s">
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>755</v>
+      </c>
+      <c r="P2" t="s">
         <v>752</v>
       </c>
-      <c r="P2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>18330</v>
+      </c>
+      <c r="C3" t="s">
         <v>783</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="O3" s="26" t="s">
+      <c r="N3" t="s">
+        <v>754</v>
+      </c>
+      <c r="O3" t="s">
+        <v>755</v>
+      </c>
+      <c r="P3" t="s">
         <v>752</v>
-      </c>
-      <c r="P3" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -9308,13 +9329,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$F$1:$F$12</xm:f>
+            <xm:f>DataValidation!$G$1:$G$12</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$G$1:$G$6</xm:f>
+            <xm:f>DataValidation!$I$1:$I$6</xm:f>
           </x14:formula1>
           <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
@@ -9326,13 +9347,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$H$1:$H$3</xm:f>
+            <xm:f>DataValidation!$F$1:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
-            <xm:f>DataValidation!$I$1:$I$5</xm:f>
+            <xm:f>DataValidation!$H$1:$H$5</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
@@ -9348,149 +9369,149 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="H1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="I1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="F2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="I2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
+        <v>759</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
-        <v>754</v>
-      </c>
       <c r="H3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="I3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F4" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G4" t="s">
+        <v>763</v>
+      </c>
+      <c r="H4" t="s">
+        <v>764</v>
+      </c>
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F5" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="G5" t="s">
-        <v>762</v>
+        <v>766</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>763</v>
-      </c>
-      <c r="F6" t="s">
+        <v>768</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>765</v>
-      </c>
-      <c r="F7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+      <c r="G7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>767</v>
-      </c>
-      <c r="F8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+      <c r="G8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>768</v>
-      </c>
-      <c r="F9" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+      <c r="G9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>770</v>
-      </c>
-      <c r="F10" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+      <c r="G10" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>772</v>
-      </c>
-      <c r="F11" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="G11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>774</v>
-      </c>
-      <c r="F12" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="G12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/IterationForMyWizardInstance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="787">
   <si>
     <t>Title</t>
   </si>
@@ -2432,12 +2432,22 @@
   <si>
     <t>Sprint_AutomationData_GenericUploader</t>
   </si>
+  <si>
+    <t>16588</t>
+  </si>
+  <si>
+    <t>2022-02-11T05:50:02Z</t>
+  </si>
+  <si>
+    <t>16589</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3344,11 +3354,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.81640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.1796875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.81640625" collapsed="false"/>
+    <col min="5" max="16384" style="6" width="8.81640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3839,12 +3849,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.81640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="11" width="9.1796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.1796875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.81640625" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="false"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.1796875" collapsed="false"/>
+    <col min="12" max="16384" style="3" width="9.1796875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -9217,19 +9227,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="9"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.81640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.36328125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.36328125" collapsed="false"/>
+    <col min="5" max="5" style="9" width="8.81640625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.08984375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.08984375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.54296875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.54296875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.08984375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.453125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -9283,14 +9293,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>18328</v>
+      <c r="A2" t="s">
+        <v>784</v>
       </c>
       <c r="C2" t="s">
         <v>782</v>
       </c>
+      <c r="I2" t="s">
+        <v>785</v>
+      </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>754</v>
       </c>
       <c r="O2" t="s">
         <v>755</v>
@@ -9300,8 +9313,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>18330</v>
+      <c r="A3" t="s">
+        <v>786</v>
       </c>
       <c r="C3" t="s">
         <v>783</v>
